--- a/修真聊天群/仙侣.xlsx
+++ b/修真聊天群/仙侣.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12210"/>
+    <workbookView windowWidth="28125" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="137">
   <si>
     <t>序号</t>
   </si>
@@ -42,7 +42,148 @@
     <t>公孙寒月</t>
   </si>
   <si>
-    <t>三级</t>
+    <t>百草堂</t>
+  </si>
+  <si>
+    <t>黎秋琼</t>
+  </si>
+  <si>
+    <t>苍梧派</t>
+  </si>
+  <si>
+    <t>上官诗央</t>
+  </si>
+  <si>
+    <t>万毒门</t>
+  </si>
+  <si>
+    <t>暮云廷</t>
+  </si>
+  <si>
+    <t>姚楚君</t>
+  </si>
+  <si>
+    <t>玄灵派</t>
+  </si>
+  <si>
+    <t>蒋欢月</t>
+  </si>
+  <si>
+    <t>玄水门</t>
+  </si>
+  <si>
+    <t>屈魅璃</t>
+  </si>
+  <si>
+    <t>姬涟浣</t>
+  </si>
+  <si>
+    <t>楚汐瑶</t>
+  </si>
+  <si>
+    <t>阴尸宗</t>
+  </si>
+  <si>
+    <t>冷画彤</t>
+  </si>
+  <si>
+    <t>正一门</t>
+  </si>
+  <si>
+    <t>楚花雅</t>
+  </si>
+  <si>
+    <t>百剑堂</t>
+  </si>
+  <si>
+    <t>钟云邈</t>
+  </si>
+  <si>
+    <t>温茗</t>
+  </si>
+  <si>
+    <t>飞星观</t>
+  </si>
+  <si>
+    <t>纳兰蝶</t>
+  </si>
+  <si>
+    <t>离魂宗</t>
+  </si>
+  <si>
+    <t>吕云溪</t>
+  </si>
+  <si>
+    <t>离火教</t>
+  </si>
+  <si>
+    <t>瑾非年</t>
+  </si>
+  <si>
+    <t>慕容云悠</t>
+  </si>
+  <si>
+    <t>流云阁</t>
+  </si>
+  <si>
+    <t>长孙离燕</t>
+  </si>
+  <si>
+    <t>萧沐雪</t>
+  </si>
+  <si>
+    <t>如意宗</t>
+  </si>
+  <si>
+    <t>雪雨央</t>
+  </si>
+  <si>
+    <t>天机门</t>
+  </si>
+  <si>
+    <t>姬星耀</t>
+  </si>
+  <si>
+    <t>林婉儿</t>
+  </si>
+  <si>
+    <t>无双门</t>
+  </si>
+  <si>
+    <t>风楚熏</t>
+  </si>
+  <si>
+    <t>笑忘语</t>
+  </si>
+  <si>
+    <t>玄天殿</t>
+  </si>
+  <si>
+    <t>沈绒雪</t>
+  </si>
+  <si>
+    <t>饶山海</t>
+  </si>
+  <si>
+    <t>血煞宗</t>
+  </si>
+  <si>
+    <t>上官雨笙</t>
+  </si>
+  <si>
+    <t>烟雨阁</t>
+  </si>
+  <si>
+    <t>黛梦香</t>
+  </si>
+  <si>
+    <t>月云芝</t>
+  </si>
+  <si>
+    <t>映月宗</t>
+  </si>
+  <si>
+    <t>慕容雪</t>
   </si>
   <si>
     <t>白莲教</t>
@@ -54,46 +195,91 @@
     <t>花铃兰</t>
   </si>
   <si>
-    <t>百草堂</t>
-  </si>
-  <si>
-    <t>黎秋琼</t>
-  </si>
-  <si>
-    <t>百剑堂</t>
-  </si>
-  <si>
-    <t>钟云邈</t>
-  </si>
-  <si>
-    <t>温茗</t>
-  </si>
-  <si>
     <t>碧落宗</t>
   </si>
   <si>
     <t>秋莲</t>
   </si>
   <si>
-    <t>一级</t>
-  </si>
-  <si>
-    <t>苍梧派</t>
-  </si>
-  <si>
-    <t>上官诗央</t>
-  </si>
-  <si>
     <t>断剑山庄</t>
   </si>
   <si>
     <t>尚纤羽</t>
   </si>
   <si>
-    <t>飞星观</t>
-  </si>
-  <si>
-    <t>纳兰蝶</t>
+    <t>红尘教</t>
+  </si>
+  <si>
+    <t>潭乐瑶</t>
+  </si>
+  <si>
+    <t>极阴宗</t>
+  </si>
+  <si>
+    <t>风无曦</t>
+  </si>
+  <si>
+    <t>蒋一一</t>
+  </si>
+  <si>
+    <t>金乌宗</t>
+  </si>
+  <si>
+    <t>萧芷蕾</t>
+  </si>
+  <si>
+    <t>青城派</t>
+  </si>
+  <si>
+    <t>龙灵儿</t>
+  </si>
+  <si>
+    <t>桃花宗</t>
+  </si>
+  <si>
+    <t>付凝烟</t>
+  </si>
+  <si>
+    <t>黄小玲</t>
+  </si>
+  <si>
+    <t>玄冰宫</t>
+  </si>
+  <si>
+    <t>楚香凝</t>
+  </si>
+  <si>
+    <t>姬蓝雨</t>
+  </si>
+  <si>
+    <t>关素馨</t>
+  </si>
+  <si>
+    <t>玄武门</t>
+  </si>
+  <si>
+    <t>紫苏</t>
+  </si>
+  <si>
+    <t>长生教</t>
+  </si>
+  <si>
+    <t>林熙</t>
+  </si>
+  <si>
+    <t>紫云门</t>
+  </si>
+  <si>
+    <t>冷姚芳</t>
+  </si>
+  <si>
+    <t>水月宗</t>
+  </si>
+  <si>
+    <t>白羽</t>
+  </si>
+  <si>
+    <t>顾嫣然</t>
   </si>
   <si>
     <t>缚仙宗</t>
@@ -105,12 +291,6 @@
     <t>苏青檀</t>
   </si>
   <si>
-    <t>红尘教</t>
-  </si>
-  <si>
-    <t>潭乐瑶</t>
-  </si>
-  <si>
     <t>幻心门</t>
   </si>
   <si>
@@ -129,21 +309,6 @@
     <t>凌月</t>
   </si>
   <si>
-    <t>极阴宗</t>
-  </si>
-  <si>
-    <t>风无曦</t>
-  </si>
-  <si>
-    <t>蒋一一</t>
-  </si>
-  <si>
-    <t>金乌宗</t>
-  </si>
-  <si>
-    <t>萧芷蕾</t>
-  </si>
-  <si>
     <t>李墨君</t>
   </si>
   <si>
@@ -165,42 +330,12 @@
     <t>君灵苑</t>
   </si>
   <si>
-    <t>离魂宗</t>
-  </si>
-  <si>
-    <t>吕云溪</t>
-  </si>
-  <si>
-    <t>离火教</t>
-  </si>
-  <si>
-    <t>瑾非年</t>
-  </si>
-  <si>
-    <t>慕容云悠</t>
-  </si>
-  <si>
     <t>灵泉宗</t>
   </si>
   <si>
     <t>云梦</t>
   </si>
   <si>
-    <t>流云阁</t>
-  </si>
-  <si>
-    <t>长孙离燕</t>
-  </si>
-  <si>
-    <t>萧沐雪</t>
-  </si>
-  <si>
-    <t>青城派</t>
-  </si>
-  <si>
-    <t>龙灵儿</t>
-  </si>
-  <si>
     <t>青云剑宗</t>
   </si>
   <si>
@@ -216,12 +351,6 @@
     <t>李诗央</t>
   </si>
   <si>
-    <t>如意宗</t>
-  </si>
-  <si>
-    <t>雪雨央</t>
-  </si>
-  <si>
     <t>森罗殿</t>
   </si>
   <si>
@@ -243,15 +372,6 @@
     <t>易天行</t>
   </si>
   <si>
-    <t>水月宗</t>
-  </si>
-  <si>
-    <t>白羽</t>
-  </si>
-  <si>
-    <t>顾嫣然</t>
-  </si>
-  <si>
     <t>水云关</t>
   </si>
   <si>
@@ -267,157 +387,28 @@
     <t>从倾颜</t>
   </si>
   <si>
-    <t>桃花宗</t>
-  </si>
-  <si>
-    <t>付凝烟</t>
-  </si>
-  <si>
-    <t>黄小玲</t>
-  </si>
-  <si>
-    <t>天机门</t>
-  </si>
-  <si>
-    <t>姬星耀</t>
-  </si>
-  <si>
-    <t>林婉儿</t>
-  </si>
-  <si>
     <t>天谕宗</t>
   </si>
   <si>
     <t>菁莲华</t>
   </si>
   <si>
-    <t>万毒门</t>
-  </si>
-  <si>
-    <t>暮云廷</t>
-  </si>
-  <si>
-    <t>姚楚君</t>
-  </si>
-  <si>
-    <t>二级</t>
-  </si>
-  <si>
-    <t>无双门</t>
-  </si>
-  <si>
-    <t>风楚熏</t>
-  </si>
-  <si>
-    <t>笑忘语</t>
-  </si>
-  <si>
-    <t>玄冰宫</t>
-  </si>
-  <si>
-    <t>楚香凝</t>
-  </si>
-  <si>
-    <t>姬蓝雨</t>
-  </si>
-  <si>
-    <t>关素馨</t>
-  </si>
-  <si>
-    <t>玄灵派</t>
-  </si>
-  <si>
-    <t>蒋欢月</t>
-  </si>
-  <si>
-    <t>玄水门</t>
-  </si>
-  <si>
-    <t>屈魅璃</t>
-  </si>
-  <si>
-    <t>姬涟浣</t>
-  </si>
-  <si>
-    <t>楚汐瑶</t>
-  </si>
-  <si>
-    <t>玄天殿</t>
-  </si>
-  <si>
-    <t>沈绒雪</t>
-  </si>
-  <si>
-    <t>饶山海</t>
-  </si>
-  <si>
-    <t>玄武门</t>
-  </si>
-  <si>
-    <t>紫苏</t>
-  </si>
-  <si>
-    <t>血煞宗</t>
-  </si>
-  <si>
-    <t>上官雨笙</t>
-  </si>
-  <si>
-    <t>烟雨阁</t>
-  </si>
-  <si>
-    <t>黛梦香</t>
-  </si>
-  <si>
-    <t>月云芝</t>
-  </si>
-  <si>
-    <t>阴尸宗</t>
-  </si>
-  <si>
-    <t>冷画彤</t>
-  </si>
-  <si>
     <t>阴阳宗</t>
   </si>
   <si>
     <t>陆红菱</t>
   </si>
   <si>
-    <t>映月宗</t>
-  </si>
-  <si>
-    <t>慕容雪</t>
-  </si>
-  <si>
     <t>御兽宗</t>
   </si>
   <si>
     <t>叶葳蕤</t>
   </si>
   <si>
-    <t>长生教</t>
-  </si>
-  <si>
-    <t>林熙</t>
-  </si>
-  <si>
-    <t>正一门</t>
-  </si>
-  <si>
-    <t>楚花雅</t>
-  </si>
-  <si>
     <t>诛仙门</t>
   </si>
   <si>
     <t>慕容喜儿</t>
-  </si>
-  <si>
-    <t>紫云门</t>
-  </si>
-  <si>
-    <t>冷姚芳</t>
   </si>
   <si>
     <t>南宫清音</t>
@@ -447,11 +438,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,6 +459,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -475,9 +503,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,58 +528,31 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,7 +566,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,48 +588,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,187 +618,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,21 +823,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,30 +851,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -930,6 +875,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -945,148 +929,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1454,10 +1438,15 @@
   <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="5.375" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="5.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="2" t="s">
@@ -1481,7 +1470,9 @@
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1492,30 +1483,30 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3">
-        <f t="shared" ref="A3:A12" si="0">ROW()-1</f>
+        <f>ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
+      <c r="B4" s="3">
+        <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
@@ -1524,10 +1515,12 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1538,26 +1531,30 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
       <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>15</v>
@@ -1566,11 +1563,11 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
+      <c r="B8" s="3">
+        <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>16</v>
@@ -1582,761 +1579,819 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3">
+        <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>10</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>11</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3">
-        <f t="shared" ref="A13:A22" si="1">ROW()-1</f>
+        <f>ROW()-1</f>
         <v>12</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
       <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>13</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
       <c r="C14" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>14</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>15</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
       <c r="C16" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>16</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
       <c r="C17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>17</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
       <c r="C18" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>7</v>
+      <c r="B19" s="3">
+        <v>2</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>7</v>
+      <c r="B20" s="3">
+        <v>2</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>20</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
       <c r="C21" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>21</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="3">
+        <v>2</v>
+      </c>
       <c r="C22" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3">
-        <f t="shared" ref="A23:A32" si="2">ROW()-1</f>
+        <f>ROW()-1</f>
         <v>22</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="3">
+        <v>2</v>
+      </c>
       <c r="C23" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3">
-        <f t="shared" si="2"/>
+        <f>ROW()-1</f>
         <v>23</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
       <c r="C24" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3">
-        <f t="shared" si="2"/>
+        <f>ROW()-1</f>
         <v>24</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="3">
+        <v>2</v>
+      </c>
       <c r="C25" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3">
-        <f t="shared" si="2"/>
+        <f>ROW()-1</f>
         <v>25</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
       <c r="C26" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3">
-        <f t="shared" si="2"/>
+        <f>ROW()-1</f>
         <v>26</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="3">
+        <v>2</v>
+      </c>
       <c r="C27" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3">
-        <f t="shared" si="2"/>
+        <f>ROW()-1</f>
         <v>27</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="3">
+        <v>2</v>
+      </c>
       <c r="C28" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3">
-        <f t="shared" si="2"/>
+        <f>ROW()-1</f>
         <v>28</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="3">
+        <v>2</v>
+      </c>
       <c r="C29" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3">
-        <f t="shared" si="2"/>
+        <f>ROW()-1</f>
         <v>29</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="3">
+        <v>2</v>
+      </c>
       <c r="C30" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3">
-        <f t="shared" si="2"/>
+        <f>ROW()-1</f>
         <v>30</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="3">
+        <v>2</v>
+      </c>
       <c r="C31" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3">
-        <f t="shared" si="2"/>
+        <f>ROW()-1</f>
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>7</v>
+      <c r="B32" s="3">
+        <v>3</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3">
-        <f t="shared" ref="A33:A42" si="3">ROW()-1</f>
+        <f>ROW()-1</f>
         <v>32</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="3">
+        <v>3</v>
+      </c>
       <c r="C33" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3">
-        <f t="shared" si="3"/>
+        <f>ROW()-1</f>
         <v>33</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="3">
+        <v>3</v>
+      </c>
       <c r="C34" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3">
-        <f t="shared" si="3"/>
+        <f>ROW()-1</f>
         <v>34</v>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35" s="3">
+        <v>3</v>
+      </c>
       <c r="C35" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3">
-        <f t="shared" si="3"/>
+        <f>ROW()-1</f>
         <v>35</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="3">
+        <v>3</v>
+      </c>
       <c r="C36" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3">
-        <f t="shared" si="3"/>
+        <f>ROW()-1</f>
         <v>36</v>
       </c>
-      <c r="B37" s="3"/>
+      <c r="B37" s="3">
+        <v>3</v>
+      </c>
       <c r="C37" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3">
-        <f t="shared" si="3"/>
+        <f>ROW()-1</f>
         <v>37</v>
       </c>
-      <c r="B38" s="3"/>
+      <c r="B38" s="3">
+        <v>3</v>
+      </c>
       <c r="C38" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3">
-        <f t="shared" si="3"/>
+        <f>ROW()-1</f>
         <v>38</v>
       </c>
-      <c r="B39" s="3"/>
+      <c r="B39" s="3">
+        <v>3</v>
+      </c>
       <c r="C39" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3">
-        <f t="shared" si="3"/>
+        <f>ROW()-1</f>
         <v>39</v>
       </c>
-      <c r="B40" s="3"/>
+      <c r="B40" s="3">
+        <v>3</v>
+      </c>
       <c r="C40" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3">
-        <f t="shared" si="3"/>
+        <f>ROW()-1</f>
         <v>40</v>
       </c>
-      <c r="B41" s="3"/>
+      <c r="B41" s="3">
+        <v>3</v>
+      </c>
       <c r="C41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3">
-        <f t="shared" si="3"/>
+        <f>ROW()-1</f>
         <v>41</v>
       </c>
-      <c r="B42" s="3"/>
+      <c r="B42" s="3">
+        <v>3</v>
+      </c>
       <c r="C42" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3">
-        <f t="shared" ref="A43:A52" si="4">ROW()-1</f>
+        <f>ROW()-1</f>
         <v>42</v>
       </c>
-      <c r="B43" s="3"/>
+      <c r="B43" s="3">
+        <v>3</v>
+      </c>
       <c r="C43" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3">
-        <f t="shared" si="4"/>
+        <f>ROW()-1</f>
         <v>43</v>
       </c>
-      <c r="B44" s="3"/>
+      <c r="B44" s="3">
+        <v>3</v>
+      </c>
       <c r="C44" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3">
-        <f t="shared" si="4"/>
+        <f>ROW()-1</f>
         <v>44</v>
       </c>
-      <c r="B45" s="3"/>
+      <c r="B45" s="3">
+        <v>3</v>
+      </c>
       <c r="C45" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3">
-        <f t="shared" si="4"/>
+        <f>ROW()-1</f>
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>7</v>
+      <c r="B46" s="3">
+        <v>3</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3">
-        <f t="shared" si="4"/>
+        <f>ROW()-1</f>
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>7</v>
+      <c r="B47" s="3">
+        <v>3</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3">
-        <f t="shared" si="4"/>
+        <f>ROW()-1</f>
         <v>47</v>
       </c>
-      <c r="B48" s="3"/>
+      <c r="B48" s="3">
+        <v>3</v>
+      </c>
       <c r="C48" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3">
-        <f t="shared" si="4"/>
+        <f>ROW()-1</f>
         <v>48</v>
       </c>
-      <c r="B49" s="3"/>
+      <c r="B49" s="3">
+        <v>4</v>
+      </c>
       <c r="C49" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3">
-        <f t="shared" si="4"/>
+        <f>ROW()-1</f>
         <v>49</v>
       </c>
-      <c r="B50" s="3"/>
+      <c r="B50" s="3">
+        <v>4</v>
+      </c>
       <c r="C50" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3">
-        <f t="shared" si="4"/>
+        <f>ROW()-1</f>
         <v>50</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3">
-        <f t="shared" si="4"/>
+        <f>ROW()-1</f>
         <v>51</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3">
-        <f t="shared" ref="A53:A62" si="5">ROW()-1</f>
+        <f>ROW()-1</f>
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>93</v>
-      </c>
+      <c r="B53" s="3"/>
       <c r="C53" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3">
-        <f t="shared" si="5"/>
+        <f>ROW()-1</f>
         <v>53</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3">
-        <f t="shared" si="5"/>
+        <f>ROW()-1</f>
         <v>54</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B55" s="3"/>
       <c r="C55" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E55" s="3"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3">
-        <f t="shared" si="5"/>
+        <f>ROW()-1</f>
         <v>55</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B56" s="3"/>
       <c r="C56" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E56" s="3"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3">
-        <f t="shared" si="5"/>
+        <f>ROW()-1</f>
         <v>56</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B57" s="3"/>
       <c r="C57" s="3" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3">
-        <f t="shared" si="5"/>
+        <f>ROW()-1</f>
         <v>57</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="B58" s="3"/>
       <c r="C58" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3">
-        <f t="shared" si="5"/>
+        <f>ROW()-1</f>
         <v>58</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3">
-        <f t="shared" si="5"/>
+        <f>ROW()-1</f>
         <v>59</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E60" s="3"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="3">
-        <f t="shared" si="5"/>
+        <f>ROW()-1</f>
         <v>60</v>
       </c>
       <c r="B61" s="3"/>
@@ -2344,306 +2399,295 @@
         <v>103</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E61" s="3"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="3">
-        <f t="shared" si="5"/>
+        <f>ROW()-1</f>
         <v>61</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>93</v>
-      </c>
+      <c r="B62" s="3"/>
       <c r="C62" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="3">
-        <f t="shared" ref="A63:A75" si="6">ROW()-1</f>
+        <f>ROW()-1</f>
         <v>62</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>93</v>
-      </c>
+      <c r="B63" s="3"/>
       <c r="C63" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="E63" s="3"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="3">
-        <f t="shared" si="6"/>
+        <f>ROW()-1</f>
         <v>63</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B64" s="3"/>
       <c r="C64" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E64" s="3"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="3">
-        <f t="shared" si="6"/>
+        <f>ROW()-1</f>
         <v>64</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E65" s="3"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="3">
-        <f t="shared" si="6"/>
+        <f>ROW()-1</f>
         <v>65</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E66" s="3"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="3">
-        <f t="shared" si="6"/>
+        <f>ROW()-1</f>
         <v>66</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E67" s="3"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="3">
-        <f t="shared" si="6"/>
+        <f>ROW()-1</f>
         <v>67</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="B68" s="3"/>
       <c r="C68" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E68" s="3"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="3">
-        <f t="shared" si="6"/>
+        <f>ROW()-1</f>
         <v>68</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E69" s="3"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="3">
-        <f t="shared" si="6"/>
+        <f>ROW()-1</f>
         <v>69</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>93</v>
-      </c>
+      <c r="B70" s="3"/>
       <c r="C70" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="3">
-        <f t="shared" si="6"/>
+        <f>ROW()-1</f>
         <v>70</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E71" s="3"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="3">
-        <f t="shared" si="6"/>
+        <f>ROW()-1</f>
         <v>71</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B72" s="3"/>
       <c r="C72" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E72" s="3"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="3">
-        <f t="shared" si="6"/>
+        <f>ROW()-1</f>
         <v>72</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E73" s="3"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="3">
-        <f t="shared" si="6"/>
+        <f>ROW()-1</f>
         <v>73</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E74" s="3"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="3">
-        <f t="shared" si="6"/>
+        <f>ROW()-1</f>
         <v>74</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B75" s="3"/>
       <c r="C75" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E75" s="3"/>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="3">
-        <f t="shared" ref="A76:A82" si="7">ROW()-1</f>
+        <f t="shared" ref="A76:A82" si="0">ROW()-1</f>
         <v>75</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E76" s="3"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E77" s="3"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E78" s="3"/>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E79" s="3"/>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>79</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E80" s="3"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E81" s="3"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E82" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E82">
+    <sortState ref="A2:E82">
+      <sortCondition ref="B2"/>
+    </sortState>
     <extLst/>
   </autoFilter>
   <sortState ref="C2:E82">
